--- a/4. cosine similarity (synonym)/result.xlsx
+++ b/4. cosine similarity (synonym)/result.xlsx
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName localSheetId="0" name="fallow">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -398,11 +398,11 @@
   <tableColumns count="7">
     <tableColumn dataDxfId="6" id="3" name="term"/>
     <tableColumn dataDxfId="5" id="4" name="ref"/>
-    <tableColumn dataDxfId="4" id="2" name="term_stemmed"/>
-    <tableColumn dataDxfId="3" id="6" name="ref_stemmed"/>
-    <tableColumn dataDxfId="2" id="7" name="tf_idf"/>
-    <tableColumn dataDxfId="1" id="8" name="widf"/>
-    <tableColumn dataDxfId="0" id="9" name="midf"/>
+    <tableColumn dataDxfId="4" id="1" name="term_stemmed"/>
+    <tableColumn dataDxfId="3" id="2" name="ref_stemmed"/>
+    <tableColumn dataDxfId="2" id="5" name="tf_idf"/>
+    <tableColumn dataDxfId="1" id="6" name="widf"/>
+    <tableColumn dataDxfId="0" id="7" name="midf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
@@ -702,12 +702,13 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="11"/>
+    <col customWidth="1" max="2" min="1" style="1" width="11"/>
+    <col customWidth="1" max="7" min="6" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -749,10 +750,10 @@
       <c r="E2" s="1" t="n">
         <v>0.03293003474653785</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" t="n">
         <v>0.4535513222024582</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" t="n">
         <v>0.0414875544200232</v>
       </c>
     </row>
@@ -772,10 +773,10 @@
       <c r="E3" s="1" t="n">
         <v>0.1390872060840256</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" t="n">
         <v>0.4641954089181745</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" t="n">
         <v>0.0677534981701092</v>
       </c>
     </row>
@@ -795,10 +796,10 @@
       <c r="E4" s="1" t="n">
         <v>0.1328958511474541</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" t="n">
         <v>0.3451188243371846</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" t="n">
         <v>0.07574173400609352</v>
       </c>
     </row>
@@ -818,10 +819,10 @@
       <c r="E5" s="1" t="n">
         <v>0.3062384221241079</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" t="n">
         <v>0.01231292674304348</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" t="n">
         <v>0.1797849022986157</v>
       </c>
     </row>
@@ -841,10 +842,10 @@
       <c r="E6" s="1" t="n">
         <v>-0.09428092728204161</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" t="n">
         <v>0.33499627798191</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" t="n">
         <v>0.0002761316652481057</v>
       </c>
     </row>
@@ -864,10 +865,10 @@
       <c r="E7" s="1" t="n">
         <v>0.1675787413825249</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" t="n">
         <v>0.4039249675278008</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" t="n">
         <v>0.1209418146959022</v>
       </c>
     </row>
@@ -887,10 +888,10 @@
       <c r="E8" s="1" t="n">
         <v>-0.0007951851330339228</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" t="n">
         <v>0.3802404162865445</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" t="n">
         <v>-0.1790011103918525</v>
       </c>
     </row>
@@ -910,10 +911,10 @@
       <c r="E9" s="1" t="n">
         <v>-0.0007951851330339228</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" t="n">
         <v>0.3802404162865445</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" t="n">
         <v>-0.1790011103918525</v>
       </c>
     </row>
@@ -933,10 +934,10 @@
       <c r="E10" s="1" t="n">
         <v>0.06399804300936859</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" t="n">
         <v>0.302201150039426</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" t="n">
         <v>0.06996016294285445</v>
       </c>
     </row>
@@ -956,10 +957,10 @@
       <c r="E11" s="1" t="n">
         <v>0.005956997257541402</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" t="n">
         <v>0.4160669814342839</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" t="n">
         <v>-0.01478138279060309</v>
       </c>
     </row>
@@ -979,10 +980,10 @@
       <c r="E12" s="1" t="n">
         <v>0.1428147663677796</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" t="n">
         <v>0.4055523613186095</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" t="n">
         <v>0.07422161342487783</v>
       </c>
     </row>
@@ -1002,10 +1003,10 @@
       <c r="E13" s="1" t="n">
         <v>0.1912858286828958</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" t="n">
         <v>0.3270164541970543</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" t="n">
         <v>0.0782060017653331</v>
       </c>
     </row>
@@ -1025,10 +1026,10 @@
       <c r="E14" s="1" t="n">
         <v>0.3920153157445525</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" t="n">
         <v>0.1593809412435811</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" t="n">
         <v>-0.005629710072282836</v>
       </c>
     </row>
@@ -1048,10 +1049,10 @@
       <c r="E15" s="1" t="n">
         <v>0.137775833701547</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" t="n">
         <v>0.3552137205438933</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" t="n">
         <v>0.0679236305850036</v>
       </c>
     </row>
@@ -1071,10 +1072,10 @@
       <c r="E16" s="1" t="n">
         <v>0.1192559052343935</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" t="n">
         <v>0.4969431920223498</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" t="n">
         <v>0.09892303604423333</v>
       </c>
     </row>
@@ -1094,10 +1095,10 @@
       <c r="E17" s="1" t="n">
         <v>0.07827715412741029</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" t="n">
         <v>0.3624730283708297</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" t="n">
         <v>0.1745405650084653</v>
       </c>
     </row>
@@ -1117,10 +1118,10 @@
       <c r="E18" s="1" t="n">
         <v>0.02225947619397185</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" t="n">
         <v>0.3515705115225995</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" t="n">
         <v>-0.1046632084115953</v>
       </c>
     </row>
@@ -1140,10 +1141,10 @@
       <c r="E19" s="1" t="n">
         <v>-0.02071371810198238</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" t="n">
         <v>0.3010807406175656</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" t="n">
         <v>0.03264777634194034</v>
       </c>
     </row>
@@ -1163,10 +1164,10 @@
       <c r="E20" s="1" t="n">
         <v>-0.1797375970998038</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" t="n">
         <v>0.3613342294237038</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" t="n">
         <v>-0.02600036188175911</v>
       </c>
     </row>
@@ -1186,10 +1187,10 @@
       <c r="E21" s="1" t="n">
         <v>0.09056235458894397</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" t="n">
         <v>0.3457050663129982</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" t="n">
         <v>-0.2490177284358013</v>
       </c>
     </row>
@@ -1209,10 +1210,10 @@
       <c r="E22" s="1" t="n">
         <v>0.09056235458894397</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" t="n">
         <v>0.3457050663129982</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" t="n">
         <v>-0.2490177284358013</v>
       </c>
     </row>
@@ -1232,10 +1233,10 @@
       <c r="E23" s="1" t="n">
         <v>0.09056235458894397</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" t="n">
         <v>0.3457050663129982</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" t="n">
         <v>-0.2490177284358013</v>
       </c>
     </row>
@@ -1255,10 +1256,10 @@
       <c r="E24" s="1" t="n">
         <v>0.01831898773306423</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" t="n">
         <v>0.3361599605240839</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" t="n">
         <v>-0.0376447715742367</v>
       </c>
     </row>
@@ -1278,10 +1279,10 @@
       <c r="E25" s="1" t="n">
         <v>0.2462399134131426</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" t="n">
         <v>0.4753181312527693</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" t="n">
         <v>0.1371787419043924</v>
       </c>
     </row>
@@ -1301,10 +1302,10 @@
       <c r="E26" s="1" t="n">
         <v>-0.06702600663454046</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" t="n">
         <v>0.324620558604619</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" t="n">
         <v>-0.0550258373762858</v>
       </c>
     </row>
@@ -1324,10 +1325,10 @@
       <c r="E27" s="1" t="n">
         <v>0.07827715412741029</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" t="n">
         <v>0.3624730283708297</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" t="n">
         <v>0.1745405650084653</v>
       </c>
     </row>
@@ -1347,10 +1348,10 @@
       <c r="E28" s="1" t="n">
         <v>0.3289699097635397</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" t="n">
         <v>0.1889476248625185</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" t="n">
         <v>0.1070940062609316</v>
       </c>
     </row>
@@ -1370,10 +1371,10 @@
       <c r="E29" s="1" t="n">
         <v>0.06399804300936859</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" t="n">
         <v>0.302201150039426</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" t="n">
         <v>0.06996016294285445</v>
       </c>
     </row>
@@ -1393,10 +1394,10 @@
       <c r="E30" s="1" t="n">
         <v>0.1500816335875482</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" t="n">
         <v>0.3130195692179304</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" t="n">
         <v>0.07260095478826124</v>
       </c>
     </row>
@@ -1416,10 +1417,10 @@
       <c r="E31" s="1" t="n">
         <v>0.3042435412218841</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" t="n">
         <v>0.1983396514527916</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" t="n">
         <v>0.1542670111556622</v>
       </c>
     </row>
@@ -1439,10 +1440,10 @@
       <c r="E32" s="1" t="n">
         <v>0.1756628696574739</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" t="n">
         <v>0.3166569723293067</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" t="n">
         <v>0.01425110586254825</v>
       </c>
     </row>
@@ -1462,10 +1463,10 @@
       <c r="E33" s="1" t="n">
         <v>0.005956997257541402</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" t="n">
         <v>0.4160669814342839</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" t="n">
         <v>-0.01478138279060309</v>
       </c>
     </row>
@@ -1485,10 +1486,10 @@
       <c r="E34" s="1" t="n">
         <v>0.1417059436511282</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" t="n">
         <v>0.3203895929421602</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" t="n">
         <v>0.09392440068652133</v>
       </c>
     </row>
@@ -1508,10 +1509,10 @@
       <c r="E35" s="1" t="n">
         <v>0.1784134729776811</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" t="n">
         <v>0.3024291439264477</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" t="n">
         <v>0.1247830326431898</v>
       </c>
     </row>
@@ -1531,10 +1532,10 @@
       <c r="E36" s="1" t="n">
         <v>0.1568665224044992</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" t="n">
         <v>0.301078714228045</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" t="n">
         <v>0.04211207938461452</v>
       </c>
     </row>
@@ -1554,10 +1555,10 @@
       <c r="E37" s="1" t="n">
         <v>-0.1061174083802757</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" t="n">
         <v>0.3021074805795445</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" t="n">
         <v>-0.04257586034733254</v>
       </c>
     </row>
@@ -1577,10 +1578,10 @@
       <c r="E38" s="1" t="n">
         <v>0.166090325043907</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" t="n">
         <v>0.3054068972794182</v>
       </c>
-      <c r="G38" s="1" t="n">
+      <c r="G38" t="n">
         <v>0.1407502515407563</v>
       </c>
     </row>
@@ -1600,10 +1601,10 @@
       <c r="E39" s="1" t="n">
         <v>0.1675787413825249</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" t="n">
         <v>0.4039249675278008</v>
       </c>
-      <c r="G39" s="1" t="n">
+      <c r="G39" t="n">
         <v>0.1209418146959022</v>
       </c>
     </row>
@@ -1623,10 +1624,10 @@
       <c r="E40" s="1" t="n">
         <v>0.1006029307227007</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40" t="n">
         <v>0.01742367037798393</v>
       </c>
-      <c r="G40" s="1" t="n">
+      <c r="G40" t="n">
         <v>0.3614449018344902</v>
       </c>
     </row>
@@ -1646,10 +1647,10 @@
       <c r="E41" s="1" t="n">
         <v>0.3756414468077684</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" t="n">
         <v>0.1539137046362629</v>
       </c>
-      <c r="G41" s="1" t="n">
+      <c r="G41" t="n">
         <v>0.2509449481920616</v>
       </c>
     </row>
